--- a/biology/Botanique/Célosie/Célosie.xlsx
+++ b/biology/Botanique/Célosie/Célosie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9losie</t>
+          <t>Célosie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celosia
 Les célosies sont des plantes annuelles appartenant au genre Celosia de la famille des Amaranthaceae dont certaines espèces sont cultivées comme plantes ornementales pour leur floraison en épis spectaculaire, et parfois comme plantes potagères, pour leurs feuilles comestibles à la manière des épinards ou pour leurs graines. Certaines espèces sont des mauvaises herbes communes dans les champs cultivés.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9losie</t>
+          <t>Célosie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Celosia dérive du grec keleos qui signifie « brûlant » en référence à la floraison en forme de flamme. En espagnol, le mot celosia désigne un trompe-l'œil.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9losie</t>
+          <t>Célosie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre Celosia comprend une cinquantaine d'espèces, originaires principalement des régions tropicales et tempérées d'Amérique et d'Afrique dont :
 Celosia argentea L.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9losie</t>
+          <t>Célosie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Amérique centrale: C. chiapensis, C. digynia, C. dioica, C. floribunda, C. moquini, C. nitida, C. orcutti, C. palmeri, C. polystachia, C. virgata, C. whitei
-Amérique du Sud: C. eriantha, C. grandifolia, C. humbertiana, C. longifolia, C. major, C. persicaria[2], C. salicifolia, C virgata
+Amérique du Sud: C. eriantha, C. grandifolia, C. humbertiana, C. longifolia, C. major, C. persicaria, C. salicifolia, C virgata
 Afrique: C. anthelminthica, C. elegantissima, C. fadeniorum, C. globosa, C. hastata, C. isertii, C. leptostachya, C. linearis, C. patentiloba, C. schweinfurthiana, C. splendens, C. trigyna
 Seulement deux espèces se rencontrent dans les Caraïbes, dont C. nitida, et deux en Asie, dont C. taitoensis.</t>
         </is>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A9losie</t>
+          <t>Célosie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Celosia argentea est la seule espèce répandue dans les tropiques du monde entier. Elle est appréciée des horticulteurs qui, à force de croisements, ont créé de nombreuses variétés rouges, roses, orange, jaunes ou violettes à multiples formes.
 Les Celosia se propagent très bien par semis.
